--- a/reference/functions/spline_curve/waypoint.xlsx
+++ b/reference/functions/spline_curve/waypoint.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Students\Documents\GitHub\drone\Z_MOMOSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive\ドキュメント\GitHub\drone\reference\functions\spline_curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D906E4-BB9E-4E58-BE7A-8F14C442A4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="12855" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="2085" yWindow="2085" windowWidth="21600" windowHeight="11100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1_15" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1_15d3" sheetId="3" r:id="rId3"/>
-    <sheet name="MyNewSheet" sheetId="4" r:id="rId7"/>
-    <sheet name="new" sheetId="5" r:id="rId8"/>
+    <sheet name="MyNewSheet" sheetId="4" r:id="rId4"/>
+    <sheet name="new" sheetId="5" r:id="rId5"/>
+    <sheet name="new40" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>x_wp</t>
     <phoneticPr fontId="1"/>
@@ -41,43 +43,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>posi_1</t>
-  </si>
-  <si>
-    <t>posi_2</t>
-  </si>
-  <si>
-    <t>posi_3</t>
-  </si>
-  <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>posi_1</t>
-  </si>
-  <si>
-    <t>posi_2</t>
-  </si>
-  <si>
-    <t>posi_3</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>posi_1</t>
-  </si>
-  <si>
-    <t>posi_2</t>
-  </si>
-  <si>
-    <t>posi_3</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>posi_1</t>
@@ -116,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -148,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -156,15 +122,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -478,7 +442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -487,7 +451,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -501,7 +465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -515,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1.5</v>
       </c>
@@ -529,7 +493,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -543,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4.5</v>
       </c>
@@ -557,7 +521,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -571,7 +535,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>7.5</v>
       </c>
@@ -585,7 +549,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>9</v>
       </c>
@@ -599,7 +563,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>10.5</v>
       </c>
@@ -613,7 +577,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>12</v>
       </c>
@@ -627,7 +591,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>13.5</v>
       </c>
@@ -641,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>15</v>
       </c>
@@ -655,7 +619,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>16.5</v>
       </c>
@@ -669,7 +633,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>18</v>
       </c>
@@ -683,7 +647,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>19.5</v>
       </c>
@@ -697,7 +661,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>21</v>
       </c>
@@ -711,7 +675,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>22.5</v>
       </c>
@@ -725,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>24</v>
       </c>
@@ -739,7 +703,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>25.5</v>
       </c>
@@ -753,7 +717,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>27</v>
       </c>
@@ -767,7 +731,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>28.5</v>
       </c>
@@ -781,7 +745,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>30</v>
       </c>
@@ -795,7 +759,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>31.5</v>
       </c>
@@ -809,7 +773,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>33</v>
       </c>
@@ -823,7 +787,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>34.5</v>
       </c>
@@ -837,7 +801,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>36</v>
       </c>
@@ -859,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -868,7 +832,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -882,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -896,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -910,7 +874,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -924,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>6</v>
       </c>
@@ -938,7 +902,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>8</v>
       </c>
@@ -952,7 +916,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>10</v>
       </c>
@@ -966,7 +930,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>12</v>
       </c>
@@ -980,7 +944,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>14</v>
       </c>
@@ -994,7 +958,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>16</v>
       </c>
@@ -1008,7 +972,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>18</v>
       </c>
@@ -1022,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>20</v>
       </c>
@@ -1036,7 +1000,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>22</v>
       </c>
@@ -1050,7 +1014,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>24</v>
       </c>
@@ -1064,7 +1028,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>26</v>
       </c>
@@ -1078,7 +1042,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>28</v>
       </c>
@@ -1092,7 +1056,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>30</v>
       </c>
@@ -1106,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>32</v>
       </c>
@@ -1120,7 +1084,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>34</v>
       </c>
@@ -1134,7 +1098,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>36</v>
       </c>
@@ -1148,7 +1112,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>38</v>
       </c>
@@ -1162,7 +1126,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>40</v>
       </c>
@@ -1176,7 +1140,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>42</v>
       </c>
@@ -1190,7 +1154,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>44</v>
       </c>
@@ -1204,7 +1168,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>46</v>
       </c>
@@ -1218,7 +1182,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>48</v>
       </c>
@@ -1240,16 +1204,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1263,7 +1227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1277,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1291,7 +1255,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1305,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1319,7 +1283,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1333,7 +1297,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1347,7 +1311,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>18</v>
       </c>
@@ -1361,7 +1325,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>21</v>
       </c>
@@ -1375,7 +1339,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>24</v>
       </c>
@@ -1389,7 +1353,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>27</v>
       </c>
@@ -1403,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>30</v>
       </c>
@@ -1417,7 +1381,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>33</v>
       </c>
@@ -1431,7 +1395,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>36</v>
       </c>
@@ -1445,7 +1409,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>39</v>
       </c>
@@ -1459,7 +1423,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>42</v>
       </c>
@@ -1473,7 +1437,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>45</v>
       </c>
@@ -1487,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>48</v>
       </c>
@@ -1501,7 +1465,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1515,7 +1479,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>54</v>
       </c>
@@ -1529,7 +1493,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>57</v>
       </c>
@@ -1543,7 +1507,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>60</v>
       </c>
@@ -1557,7 +1521,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>63</v>
       </c>
@@ -1571,7 +1535,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>66</v>
       </c>
@@ -1585,7 +1549,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>69</v>
       </c>
@@ -1599,7 +1563,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>72</v>
       </c>
@@ -1621,157 +1585,1107 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="true"/>
-    <col min="2" max="2" width="6.85546875" customWidth="true"/>
-    <col min="3" max="3" width="6.85546875" customWidth="true"/>
-    <col min="4" max="4" width="6.85546875" customWidth="true"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="4" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0">
-        <v>-0.90000000000000002</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="D2" s="0">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.9</v>
+      </c>
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="C3" s="0">
-        <v>-0.20000000000000001</v>
-      </c>
-      <c r="D3" s="0">
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3">
+        <v>-0.2</v>
+      </c>
+      <c r="D3">
         <v>1.4000000000000001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="true"/>
-    <col min="2" max="2" width="6.85546875" customWidth="true"/>
-    <col min="3" max="3" width="6.85546875" customWidth="true"/>
-    <col min="4" max="4" width="6.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="4" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D5">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="D7">
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>-0.2</v>
+      </c>
+      <c r="C9">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="D9">
+        <v>1.7500000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B10">
+        <v>-0.45</v>
+      </c>
+      <c r="C10">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="D10">
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C11">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>-0.75000000000000011</v>
+      </c>
+      <c r="C12">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D12">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>-0.75000000000000011</v>
+      </c>
+      <c r="C13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D13">
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>-0.75000000000000011</v>
+      </c>
+      <c r="C14">
+        <v>-0.05</v>
+      </c>
+      <c r="D14">
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>-0.65</v>
+      </c>
+      <c r="C15">
+        <v>-0.25</v>
+      </c>
+      <c r="D15">
+        <v>1.4500000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>-0.45</v>
+      </c>
+      <c r="C16">
+        <v>-0.4</v>
+      </c>
+      <c r="D16">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>-0.05</v>
+      </c>
+      <c r="C17">
+        <v>-0.45</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+      <c r="C18">
+        <v>-0.5</v>
+      </c>
+      <c r="D18">
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>0.45</v>
+      </c>
+      <c r="C19">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="D19">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="C21">
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>-0.1</v>
+      </c>
+      <c r="C22">
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>63</v>
+      </c>
+      <c r="B23">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C23">
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>66</v>
+      </c>
+      <c r="B24">
+        <v>-0.65</v>
+      </c>
+      <c r="C24">
+        <v>-0.9</v>
+      </c>
+      <c r="D24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>-0.65000000000000013</v>
+      </c>
+      <c r="C25">
+        <v>-0.65000000000000013</v>
+      </c>
+      <c r="D25">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>-0.4</v>
+      </c>
+      <c r="C26">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="D26">
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>75</v>
+      </c>
+      <c r="B27">
+        <v>0.2</v>
+      </c>
+      <c r="C27">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="D27">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>78</v>
+      </c>
+      <c r="B28">
+        <v>0.4</v>
+      </c>
+      <c r="C28">
+        <v>-0.25</v>
+      </c>
+      <c r="D28">
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>81</v>
+      </c>
+      <c r="B29">
+        <v>0.8</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+      <c r="D29">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>84</v>
+      </c>
+      <c r="B30">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="C30">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D30">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>87</v>
+      </c>
+      <c r="B31">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="C31">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="4" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="C2">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-0.4</v>
+      </c>
+      <c r="C3">
+        <v>-0.1</v>
+      </c>
+      <c r="D3">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>-0.9</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-0.9</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="C7">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>-0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>0.8</v>
+      </c>
+      <c r="D9">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.6</v>
+      </c>
+      <c r="C10">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C11">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.4</v>
+      </c>
+      <c r="C12">
+        <v>0.2</v>
+      </c>
+      <c r="D12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C14">
+        <v>-0.4</v>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0.90000000000000002</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="C3" s="0">
+      <c r="B15">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C15">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="D15">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C16">
+        <v>-0.9</v>
+      </c>
+      <c r="D16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C17">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="D17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18">
         <v>-0.30000000000000004</v>
       </c>
-      <c r="D3" s="0">
+      <c r="C18">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="D18">
+        <v>1.3000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>-0.9</v>
+      </c>
+      <c r="C20">
+        <v>-0.8</v>
+      </c>
+      <c r="D20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>-0.6</v>
+      </c>
+      <c r="D21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="C22">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D22">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>-1.3000000000000003</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="C24">
+        <v>0.6</v>
+      </c>
+      <c r="D24">
+        <v>1.5000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.8</v>
+      </c>
+      <c r="D25">
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0">
-        <v>-0</v>
-      </c>
-      <c r="C4" s="0">
-        <v>-0.40000000000000002</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.90000000000000002</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0">
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>-0.9</v>
+      </c>
+      <c r="C26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>-0.6</v>
+      </c>
+      <c r="C27">
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="D27">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1.3</v>
+      </c>
+      <c r="D28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>0.4</v>
+      </c>
+      <c r="C29">
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="D29">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>0.9</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C31">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D31">
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="C32">
+        <v>0.4</v>
+      </c>
+      <c r="D32">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="C34">
+        <v>-0.2</v>
+      </c>
+      <c r="D34">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>66</v>
+      </c>
+      <c r="B35">
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="C35">
+        <v>-0.5</v>
+      </c>
+      <c r="D35">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>68</v>
+      </c>
+      <c r="B36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C36">
         <v>-0.70000000000000007</v>
       </c>
-      <c r="C5" s="0">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0">
-        <v>-0.40000000000000002</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="D6" s="0">
+      <c r="D36">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>70</v>
+      </c>
+      <c r="B37">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C37">
+        <v>-0.8</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>72</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>-0.8</v>
+      </c>
+      <c r="D38">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>74</v>
+      </c>
+      <c r="B39">
+        <v>-0.4</v>
+      </c>
+      <c r="C39">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="D39">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>76</v>
+      </c>
+      <c r="B40">
+        <v>-0.4</v>
+      </c>
+      <c r="C40">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D40">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>78</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>1.4000000000000001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reference/functions/spline_curve/waypoint.xlsx
+++ b/reference/functions/spline_curve/waypoint.xlsx
@@ -17,13 +17,16 @@
     <sheet name="Sheet1_15d3" sheetId="3" r:id="rId3"/>
     <sheet name="MyNewSheet" sheetId="4" r:id="rId7"/>
     <sheet name="new" sheetId="5" r:id="rId8"/>
+    <sheet name="tyuukann_case1" sheetId="6" r:id="rId9"/>
+    <sheet name="tyuukann_case2" sheetId="7" r:id="rId10"/>
+    <sheet name="tyuukann_case3" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>x_wp</t>
     <phoneticPr fontId="1"/>
@@ -54,6 +57,42 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>posi_1</t>
+  </si>
+  <si>
+    <t>posi_2</t>
+  </si>
+  <si>
+    <t>posi_3</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>posi_1</t>
+  </si>
+  <si>
+    <t>posi_2</t>
+  </si>
+  <si>
+    <t>posi_3</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>posi_1</t>
+  </si>
+  <si>
+    <t>posi_2</t>
+  </si>
+  <si>
+    <t>posi_3</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>posi_1</t>
@@ -1774,4 +1813,427 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="6.48828125" customWidth="true"/>
+    <col min="3" max="3" width="6.48828125" customWidth="true"/>
+    <col min="4" max="4" width="6.48828125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C2" s="0">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-0.10000000000000001</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="C6" s="0">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0">
+        <v>-0.10000000000000001</v>
+      </c>
+      <c r="C7" s="0">
+        <v>-0.20000000000000001</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0">
+        <v>-0.5</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="C9" s="0">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="6.48828125" customWidth="true"/>
+    <col min="3" max="3" width="6.48828125" customWidth="true"/>
+    <col min="4" max="4" width="6.48828125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0">
+        <v>-0.59999999999999998</v>
+      </c>
+      <c r="C2" s="0">
+        <v>-0.80000000000000004</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-0.40000000000000002</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-0.10000000000000001</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="D4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="C6" s="0">
+        <v>-0.20000000000000001</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="C7" s="0">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0">
+        <v>-0.40000000000000002</v>
+      </c>
+      <c r="C8" s="0">
+        <v>-0.5</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0">
+        <v>-0.59999999999999998</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="6.48828125" customWidth="true"/>
+    <col min="3" max="3" width="6.48828125" customWidth="true"/>
+    <col min="4" max="4" width="6.48828125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C2" s="0">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-0.20000000000000001</v>
+      </c>
+      <c r="C4" s="0">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C6" s="0">
+        <v>-0.5</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="C7" s="0">
+        <v>-0.80000000000000004</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C8" s="0">
+        <v>-0.20000000000000001</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/reference/functions/spline_curve/waypoint.xlsx
+++ b/reference/functions/spline_curve/waypoint.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Students\Documents\GitHub\drone\Z_MOMOSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive\ドキュメント\GitHub\drone\reference\functions\spline_curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D906E4-BB9E-4E58-BE7A-8F14C442A4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="12855" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="2085" yWindow="2085" windowWidth="21600" windowHeight="11100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1_15" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1_15d3" sheetId="3" r:id="rId3"/>
-    <sheet name="MyNewSheet" sheetId="4" r:id="rId7"/>
-    <sheet name="new" sheetId="5" r:id="rId8"/>
-    <sheet name="tyuukann_case1" sheetId="6" r:id="rId9"/>
-    <sheet name="tyuukann_case2" sheetId="7" r:id="rId10"/>
-    <sheet name="tyuukann_case3" sheetId="8" r:id="rId11"/>
+    <sheet name="MyNewSheet" sheetId="4" r:id="rId4"/>
+    <sheet name="new" sheetId="5" r:id="rId5"/>
+    <sheet name="new40" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>x_wp</t>
     <phoneticPr fontId="1"/>
@@ -44,79 +43,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>posi_1</t>
-  </si>
-  <si>
-    <t>posi_2</t>
-  </si>
-  <si>
-    <t>posi_3</t>
-  </si>
-  <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>posi_1</t>
-  </si>
-  <si>
-    <t>posi_2</t>
-  </si>
-  <si>
-    <t>posi_3</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>posi_1</t>
-  </si>
-  <si>
-    <t>posi_2</t>
-  </si>
-  <si>
-    <t>posi_3</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>posi_1</t>
-  </si>
-  <si>
-    <t>posi_2</t>
-  </si>
-  <si>
-    <t>posi_3</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>posi_1</t>
-  </si>
-  <si>
-    <t>posi_2</t>
-  </si>
-  <si>
-    <t>posi_3</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>posi_1</t>
-  </si>
-  <si>
-    <t>posi_2</t>
-  </si>
-  <si>
-    <t>posi_3</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>posi_1</t>
@@ -155,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -187,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -195,15 +122,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -517,7 +442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -526,7 +451,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -540,7 +465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -554,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1.5</v>
       </c>
@@ -568,7 +493,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -582,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4.5</v>
       </c>
@@ -596,7 +521,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -610,7 +535,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>7.5</v>
       </c>
@@ -624,7 +549,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>9</v>
       </c>
@@ -638,7 +563,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>10.5</v>
       </c>
@@ -652,7 +577,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>12</v>
       </c>
@@ -666,7 +591,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>13.5</v>
       </c>
@@ -680,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>15</v>
       </c>
@@ -694,7 +619,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>16.5</v>
       </c>
@@ -708,7 +633,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>18</v>
       </c>
@@ -722,7 +647,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>19.5</v>
       </c>
@@ -736,7 +661,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>21</v>
       </c>
@@ -750,7 +675,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>22.5</v>
       </c>
@@ -764,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>24</v>
       </c>
@@ -778,7 +703,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>25.5</v>
       </c>
@@ -792,7 +717,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>27</v>
       </c>
@@ -806,7 +731,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>28.5</v>
       </c>
@@ -820,7 +745,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>30</v>
       </c>
@@ -834,7 +759,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>31.5</v>
       </c>
@@ -848,7 +773,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>33</v>
       </c>
@@ -862,7 +787,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>34.5</v>
       </c>
@@ -876,7 +801,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>36</v>
       </c>
@@ -898,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -907,7 +832,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -921,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -935,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -949,7 +874,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -963,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>6</v>
       </c>
@@ -977,7 +902,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>8</v>
       </c>
@@ -991,7 +916,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1005,7 +930,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1019,7 +944,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1033,7 +958,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>16</v>
       </c>
@@ -1047,7 +972,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>18</v>
       </c>
@@ -1061,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>20</v>
       </c>
@@ -1075,7 +1000,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>22</v>
       </c>
@@ -1089,7 +1014,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>24</v>
       </c>
@@ -1103,7 +1028,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>26</v>
       </c>
@@ -1117,7 +1042,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>28</v>
       </c>
@@ -1131,7 +1056,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>30</v>
       </c>
@@ -1145,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>32</v>
       </c>
@@ -1159,7 +1084,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>34</v>
       </c>
@@ -1173,7 +1098,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>36</v>
       </c>
@@ -1187,7 +1112,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>38</v>
       </c>
@@ -1201,7 +1126,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>40</v>
       </c>
@@ -1215,7 +1140,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>42</v>
       </c>
@@ -1229,7 +1154,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>44</v>
       </c>
@@ -1243,7 +1168,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>46</v>
       </c>
@@ -1257,7 +1182,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>48</v>
       </c>
@@ -1279,16 +1204,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1316,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1330,7 +1255,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1344,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1358,7 +1283,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1372,7 +1297,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1386,7 +1311,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>18</v>
       </c>
@@ -1400,7 +1325,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>21</v>
       </c>
@@ -1414,7 +1339,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>24</v>
       </c>
@@ -1428,7 +1353,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>27</v>
       </c>
@@ -1442,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>30</v>
       </c>
@@ -1456,7 +1381,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>33</v>
       </c>
@@ -1470,7 +1395,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>36</v>
       </c>
@@ -1484,7 +1409,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>39</v>
       </c>
@@ -1498,7 +1423,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>42</v>
       </c>
@@ -1512,7 +1437,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>45</v>
       </c>
@@ -1526,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>48</v>
       </c>
@@ -1540,7 +1465,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1554,7 +1479,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>54</v>
       </c>
@@ -1568,7 +1493,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>57</v>
       </c>
@@ -1582,7 +1507,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>60</v>
       </c>
@@ -1596,7 +1521,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>63</v>
       </c>
@@ -1610,7 +1535,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>66</v>
       </c>
@@ -1624,7 +1549,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>69</v>
       </c>
@@ -1638,7 +1563,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>72</v>
       </c>
@@ -1660,580 +1585,1107 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="true"/>
-    <col min="2" max="2" width="6.85546875" customWidth="true"/>
-    <col min="3" max="3" width="6.85546875" customWidth="true"/>
-    <col min="4" max="4" width="6.85546875" customWidth="true"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="4" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0">
-        <v>-0.90000000000000002</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="D2" s="0">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.9</v>
+      </c>
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="C3" s="0">
-        <v>-0.20000000000000001</v>
-      </c>
-      <c r="D3" s="0">
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3">
+        <v>-0.2</v>
+      </c>
+      <c r="D3">
         <v>1.4000000000000001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="true"/>
-    <col min="2" max="2" width="6.85546875" customWidth="true"/>
-    <col min="3" max="3" width="6.85546875" customWidth="true"/>
-    <col min="4" max="4" width="6.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="4" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D5">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="D7">
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>-0.2</v>
+      </c>
+      <c r="C9">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="D9">
+        <v>1.7500000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="B10">
+        <v>-0.45</v>
+      </c>
+      <c r="C10">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="D10">
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>27</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0.90000000000000002</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="C3" s="0">
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="D3" s="0">
-        <v>1.2000000000000002</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0">
-        <v>-0</v>
-      </c>
-      <c r="C4" s="0">
-        <v>-0.40000000000000002</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.90000000000000002</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0">
+      <c r="B11">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C11">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>-0.75000000000000011</v>
+      </c>
+      <c r="C12">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D12">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>-0.75000000000000011</v>
+      </c>
+      <c r="C13">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D13">
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>-0.75000000000000011</v>
+      </c>
+      <c r="C14">
+        <v>-0.05</v>
+      </c>
+      <c r="D14">
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>-0.65</v>
+      </c>
+      <c r="C15">
+        <v>-0.25</v>
+      </c>
+      <c r="D15">
+        <v>1.4500000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>-0.45</v>
+      </c>
+      <c r="C16">
+        <v>-0.4</v>
+      </c>
+      <c r="D16">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>-0.05</v>
+      </c>
+      <c r="C17">
+        <v>-0.45</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+      <c r="C18">
+        <v>-0.5</v>
+      </c>
+      <c r="D18">
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>0.45</v>
+      </c>
+      <c r="C19">
         <v>-0.70000000000000007</v>
       </c>
-      <c r="C5" s="0">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0">
+      <c r="D19">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="C21">
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>-0.1</v>
+      </c>
+      <c r="C22">
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>63</v>
+      </c>
+      <c r="B23">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C23">
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>66</v>
+      </c>
+      <c r="B24">
+        <v>-0.65</v>
+      </c>
+      <c r="C24">
+        <v>-0.9</v>
+      </c>
+      <c r="D24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>-0.65000000000000013</v>
+      </c>
+      <c r="C25">
+        <v>-0.65000000000000013</v>
+      </c>
+      <c r="D25">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>-0.4</v>
+      </c>
+      <c r="C26">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="D26">
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>75</v>
+      </c>
+      <c r="B27">
+        <v>0.2</v>
+      </c>
+      <c r="C27">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="D27">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>78</v>
+      </c>
+      <c r="B28">
+        <v>0.4</v>
+      </c>
+      <c r="C28">
+        <v>-0.25</v>
+      </c>
+      <c r="D28">
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>81</v>
+      </c>
+      <c r="B29">
+        <v>0.8</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+      <c r="D29">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>84</v>
+      </c>
+      <c r="B30">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="C30">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D30">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>87</v>
+      </c>
+      <c r="B31">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="C31">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D31">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0">
-        <v>-0.40000000000000002</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="D6" s="0">
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.82421875" customWidth="true"/>
-    <col min="2" max="2" width="6.48828125" customWidth="true"/>
-    <col min="3" max="3" width="6.48828125" customWidth="true"/>
-    <col min="4" max="4" width="6.48828125" customWidth="true"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="4" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="C2">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-0.4</v>
+      </c>
+      <c r="C3">
+        <v>-0.1</v>
+      </c>
+      <c r="D3">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>-0.9</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-0.9</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="C7">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>-0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>0.8</v>
+      </c>
+      <c r="D9">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.6</v>
+      </c>
+      <c r="C10">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C11">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.4</v>
+      </c>
+      <c r="C12">
+        <v>0.2</v>
+      </c>
+      <c r="D12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C14">
+        <v>-0.4</v>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C15">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="D15">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B16">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C16">
+        <v>-0.9</v>
+      </c>
+      <c r="D16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0">
-        <v>-0.60000000000000009</v>
-      </c>
-      <c r="C2" s="0">
+      <c r="B17">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C17">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="D17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="C18">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="D18">
+        <v>1.3000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19">
         <v>-0.70000000000000007</v>
       </c>
-      <c r="D2" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="C3" s="0">
-        <v>-0.10000000000000001</v>
-      </c>
-      <c r="D3" s="0">
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>-0.9</v>
+      </c>
+      <c r="C20">
+        <v>-0.8</v>
+      </c>
+      <c r="D20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>-0.6</v>
+      </c>
+      <c r="D21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="C22">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D22">
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0">
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>-1.3000000000000003</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="C24">
+        <v>0.6</v>
+      </c>
+      <c r="D24">
+        <v>1.5000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.8</v>
+      </c>
+      <c r="D25">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>-0.9</v>
+      </c>
+      <c r="C26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>-0.6</v>
+      </c>
+      <c r="C27">
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="D27">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1.3</v>
+      </c>
+      <c r="D28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>0.4</v>
+      </c>
+      <c r="C29">
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="D29">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>0.9</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C31">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D31">
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="C32">
+        <v>0.4</v>
+      </c>
+      <c r="D32">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="C34">
+        <v>-0.2</v>
+      </c>
+      <c r="D34">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>66</v>
+      </c>
+      <c r="B35">
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="C35">
+        <v>-0.5</v>
+      </c>
+      <c r="D35">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>68</v>
+      </c>
+      <c r="B36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C36">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="D36">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>70</v>
+      </c>
+      <c r="B37">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C37">
+        <v>-0.8</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>72</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>-0.8</v>
+      </c>
+      <c r="D38">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>74</v>
+      </c>
+      <c r="B39">
+        <v>-0.4</v>
+      </c>
+      <c r="C39">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="D39">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>76</v>
+      </c>
+      <c r="B40">
+        <v>-0.4</v>
+      </c>
+      <c r="C40">
         <v>-0.30000000000000004</v>
       </c>
-      <c r="C4" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="D5" s="0">
-        <v>1.2000000000000002</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>16</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="C6" s="0">
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>20</v>
-      </c>
-      <c r="B7" s="0">
-        <v>-0.10000000000000001</v>
-      </c>
-      <c r="C7" s="0">
-        <v>-0.20000000000000001</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>24</v>
-      </c>
-      <c r="B8" s="0">
-        <v>-0.5</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>28</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="C9" s="0">
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.90000000000000002</v>
+      <c r="D40">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>78</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1.4000000000000001</v>
       </c>
     </row>
   </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.82421875" customWidth="true"/>
-    <col min="2" max="2" width="6.48828125" customWidth="true"/>
-    <col min="3" max="3" width="6.48828125" customWidth="true"/>
-    <col min="4" max="4" width="6.48828125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0">
-        <v>-0.59999999999999998</v>
-      </c>
-      <c r="C2" s="0">
-        <v>-0.80000000000000004</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="C3" s="0">
-        <v>-0.40000000000000002</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0">
-        <v>-0.10000000000000001</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="D4" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>16</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="C6" s="0">
-        <v>-0.20000000000000001</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.70000000000000007</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>20</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="C7" s="0">
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="D7" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>24</v>
-      </c>
-      <c r="B8" s="0">
-        <v>-0.40000000000000002</v>
-      </c>
-      <c r="C8" s="0">
-        <v>-0.5</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.70000000000000007</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>28</v>
-      </c>
-      <c r="B9" s="0">
-        <v>-0.59999999999999998</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.82421875" customWidth="true"/>
-    <col min="2" max="2" width="6.48828125" customWidth="true"/>
-    <col min="3" max="3" width="6.48828125" customWidth="true"/>
-    <col min="4" max="4" width="6.48828125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="C2" s="0">
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0">
-        <v>-0.60000000000000009</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0">
-        <v>-0.20000000000000001</v>
-      </c>
-      <c r="C4" s="0">
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.90000000000000002</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>16</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="C6" s="0">
-        <v>-0.5</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.70000000000000007</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>20</v>
-      </c>
-      <c r="B7" s="0">
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="C7" s="0">
-        <v>-0.80000000000000004</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>24</v>
-      </c>
-      <c r="B8" s="0">
-        <v>-0.60000000000000009</v>
-      </c>
-      <c r="C8" s="0">
-        <v>-0.20000000000000001</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.90000000000000002</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>28</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="D9" s="0">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reference/functions/spline_curve/waypoint.xlsx
+++ b/reference/functions/spline_curve/waypoint.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D906E4-BB9E-4E58-BE7A-8F14C442A4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2085" windowWidth="21600" windowHeight="11100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="2085" windowWidth="21600" windowHeight="11100" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="MyNewSheet" sheetId="4" r:id="rId4"/>
     <sheet name="new" sheetId="5" r:id="rId5"/>
     <sheet name="new40" sheetId="6" r:id="rId6"/>
+    <sheet name="fish" sheetId="7" r:id="rId10"/>
+    <sheet name="fish2" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>x_wp</t>
     <phoneticPr fontId="1"/>
@@ -44,6 +46,30 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>posi_1</t>
+  </si>
+  <si>
+    <t>posi_2</t>
+  </si>
+  <si>
+    <t>posi_3</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>posi_1</t>
+  </si>
+  <si>
+    <t>posi_2</t>
+  </si>
+  <si>
+    <t>posi_3</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>posi_1</t>
@@ -114,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,13 +148,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -451,7 +479,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -465,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -479,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3">
       <c r="A3">
         <v>1.5</v>
       </c>
@@ -493,7 +521,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -507,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5">
       <c r="A5">
         <v>4.5</v>
       </c>
@@ -521,7 +549,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="A6">
         <v>6</v>
       </c>
@@ -535,7 +563,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7">
       <c r="A7">
         <v>7.5</v>
       </c>
@@ -549,7 +577,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8">
       <c r="A8">
         <v>9</v>
       </c>
@@ -563,7 +591,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9">
       <c r="A9">
         <v>10.5</v>
       </c>
@@ -577,7 +605,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10">
       <c r="A10">
         <v>12</v>
       </c>
@@ -591,7 +619,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11">
       <c r="A11">
         <v>13.5</v>
       </c>
@@ -605,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12">
       <c r="A12">
         <v>15</v>
       </c>
@@ -619,7 +647,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13">
       <c r="A13">
         <v>16.5</v>
       </c>
@@ -633,7 +661,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14">
       <c r="A14">
         <v>18</v>
       </c>
@@ -647,7 +675,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15">
       <c r="A15">
         <v>19.5</v>
       </c>
@@ -661,7 +689,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16">
       <c r="A16">
         <v>21</v>
       </c>
@@ -675,7 +703,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17">
       <c r="A17">
         <v>22.5</v>
       </c>
@@ -689,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18">
       <c r="A18">
         <v>24</v>
       </c>
@@ -703,7 +731,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19">
       <c r="A19">
         <v>25.5</v>
       </c>
@@ -717,7 +745,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20">
       <c r="A20">
         <v>27</v>
       </c>
@@ -731,7 +759,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21">
       <c r="A21">
         <v>28.5</v>
       </c>
@@ -745,7 +773,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22">
       <c r="A22">
         <v>30</v>
       </c>
@@ -759,7 +787,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23">
       <c r="A23">
         <v>31.5</v>
       </c>
@@ -773,7 +801,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24">
       <c r="A24">
         <v>33</v>
       </c>
@@ -787,7 +815,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25">
       <c r="A25">
         <v>34.5</v>
       </c>
@@ -801,7 +829,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26">
       <c r="A26">
         <v>36</v>
       </c>
@@ -832,7 +860,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -846,7 +874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -860,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -874,7 +902,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -888,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5">
       <c r="A5">
         <v>6</v>
       </c>
@@ -902,7 +930,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="A6">
         <v>8</v>
       </c>
@@ -916,7 +944,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7">
       <c r="A7">
         <v>10</v>
       </c>
@@ -930,7 +958,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8">
       <c r="A8">
         <v>12</v>
       </c>
@@ -944,7 +972,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9">
       <c r="A9">
         <v>14</v>
       </c>
@@ -958,7 +986,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10">
       <c r="A10">
         <v>16</v>
       </c>
@@ -972,7 +1000,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11">
       <c r="A11">
         <v>18</v>
       </c>
@@ -986,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12">
       <c r="A12">
         <v>20</v>
       </c>
@@ -1000,7 +1028,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13">
       <c r="A13">
         <v>22</v>
       </c>
@@ -1014,7 +1042,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14">
       <c r="A14">
         <v>24</v>
       </c>
@@ -1028,7 +1056,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15">
       <c r="A15">
         <v>26</v>
       </c>
@@ -1042,7 +1070,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16">
       <c r="A16">
         <v>28</v>
       </c>
@@ -1056,7 +1084,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17">
       <c r="A17">
         <v>30</v>
       </c>
@@ -1070,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18">
       <c r="A18">
         <v>32</v>
       </c>
@@ -1084,7 +1112,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19">
       <c r="A19">
         <v>34</v>
       </c>
@@ -1098,7 +1126,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20">
       <c r="A20">
         <v>36</v>
       </c>
@@ -1112,7 +1140,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21">
       <c r="A21">
         <v>38</v>
       </c>
@@ -1126,7 +1154,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22">
       <c r="A22">
         <v>40</v>
       </c>
@@ -1140,7 +1168,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23">
       <c r="A23">
         <v>42</v>
       </c>
@@ -1154,7 +1182,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24">
       <c r="A24">
         <v>44</v>
       </c>
@@ -1168,7 +1196,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25">
       <c r="A25">
         <v>46</v>
       </c>
@@ -1182,7 +1210,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26">
       <c r="A26">
         <v>48</v>
       </c>
@@ -1213,7 +1241,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1227,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1241,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1255,7 +1283,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1269,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1283,7 +1311,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1297,7 +1325,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1311,7 +1339,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8">
       <c r="A8">
         <v>18</v>
       </c>
@@ -1325,7 +1353,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9">
       <c r="A9">
         <v>21</v>
       </c>
@@ -1339,7 +1367,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10">
       <c r="A10">
         <v>24</v>
       </c>
@@ -1353,7 +1381,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11">
       <c r="A11">
         <v>27</v>
       </c>
@@ -1367,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12">
       <c r="A12">
         <v>30</v>
       </c>
@@ -1381,7 +1409,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13">
       <c r="A13">
         <v>33</v>
       </c>
@@ -1395,7 +1423,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14">
       <c r="A14">
         <v>36</v>
       </c>
@@ -1409,7 +1437,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15">
       <c r="A15">
         <v>39</v>
       </c>
@@ -1423,7 +1451,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16">
       <c r="A16">
         <v>42</v>
       </c>
@@ -1437,7 +1465,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17">
       <c r="A17">
         <v>45</v>
       </c>
@@ -1451,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18">
       <c r="A18">
         <v>48</v>
       </c>
@@ -1465,7 +1493,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1479,7 +1507,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20">
       <c r="A20">
         <v>54</v>
       </c>
@@ -1493,7 +1521,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21">
       <c r="A21">
         <v>57</v>
       </c>
@@ -1507,7 +1535,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22">
       <c r="A22">
         <v>60</v>
       </c>
@@ -1521,7 +1549,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23">
       <c r="A23">
         <v>63</v>
       </c>
@@ -1535,7 +1563,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24">
       <c r="A24">
         <v>66</v>
       </c>
@@ -1549,7 +1577,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25">
       <c r="A25">
         <v>69</v>
       </c>
@@ -1563,7 +1591,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26">
       <c r="A26">
         <v>72</v>
       </c>
@@ -1592,11 +1620,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="4" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="true"/>
+    <col min="2" max="4" width="6.85546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1624,7 +1652,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1652,11 +1680,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="4" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="true"/>
+    <col min="2" max="4" width="6.85546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1670,7 +1698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1684,7 +1712,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1698,7 +1726,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1712,7 +1740,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1726,7 +1754,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1740,7 +1768,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1754,7 +1782,7 @@
         <v>1.6500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8">
       <c r="A8">
         <v>18</v>
       </c>
@@ -1768,7 +1796,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9">
       <c r="A9">
         <v>21</v>
       </c>
@@ -1782,7 +1810,7 @@
         <v>1.7500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10">
       <c r="A10">
         <v>24</v>
       </c>
@@ -1796,7 +1824,7 @@
         <v>1.6500000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11">
       <c r="A11">
         <v>27</v>
       </c>
@@ -1810,7 +1838,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12">
       <c r="A12">
         <v>30</v>
       </c>
@@ -1824,7 +1852,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13">
       <c r="A13">
         <v>33</v>
       </c>
@@ -1838,7 +1866,7 @@
         <v>1.6500000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14">
       <c r="A14">
         <v>36</v>
       </c>
@@ -1852,7 +1880,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15">
       <c r="A15">
         <v>39</v>
       </c>
@@ -1866,7 +1894,7 @@
         <v>1.4500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16">
       <c r="A16">
         <v>42</v>
       </c>
@@ -1880,7 +1908,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17">
       <c r="A17">
         <v>45</v>
       </c>
@@ -1894,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18">
       <c r="A18">
         <v>48</v>
       </c>
@@ -1908,7 +1936,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1922,7 +1950,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20">
       <c r="A20">
         <v>54</v>
       </c>
@@ -1936,7 +1964,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21">
       <c r="A21">
         <v>57</v>
       </c>
@@ -1950,7 +1978,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22">
       <c r="A22">
         <v>60</v>
       </c>
@@ -1964,7 +1992,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23">
       <c r="A23">
         <v>63</v>
       </c>
@@ -1978,7 +2006,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24">
       <c r="A24">
         <v>66</v>
       </c>
@@ -1992,7 +2020,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25">
       <c r="A25">
         <v>69</v>
       </c>
@@ -2006,7 +2034,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26">
       <c r="A26">
         <v>72</v>
       </c>
@@ -2020,7 +2048,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27">
       <c r="A27">
         <v>75</v>
       </c>
@@ -2034,7 +2062,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28">
       <c r="A28">
         <v>78</v>
       </c>
@@ -2048,7 +2076,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29">
       <c r="A29">
         <v>81</v>
       </c>
@@ -2062,7 +2090,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30">
       <c r="A30">
         <v>84</v>
       </c>
@@ -2076,7 +2104,7 @@
         <v>0.95000000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31">
       <c r="A31">
         <v>87</v>
       </c>
@@ -2100,17 +2128,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="4" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="true"/>
+    <col min="2" max="4" width="6.85546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2124,7 +2152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2138,7 +2166,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2152,7 +2180,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2166,7 +2194,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5">
       <c r="A5">
         <v>6</v>
       </c>
@@ -2180,7 +2208,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="A6">
         <v>8</v>
       </c>
@@ -2194,7 +2222,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7">
       <c r="A7">
         <v>10</v>
       </c>
@@ -2208,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8">
       <c r="A8">
         <v>12</v>
       </c>
@@ -2222,7 +2250,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9">
       <c r="A9">
         <v>14</v>
       </c>
@@ -2236,7 +2264,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10">
       <c r="A10">
         <v>16</v>
       </c>
@@ -2250,7 +2278,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11">
       <c r="A11">
         <v>18</v>
       </c>
@@ -2264,7 +2292,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12">
       <c r="A12">
         <v>20</v>
       </c>
@@ -2278,7 +2306,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13">
       <c r="A13">
         <v>22</v>
       </c>
@@ -2292,7 +2320,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14">
       <c r="A14">
         <v>24</v>
       </c>
@@ -2306,7 +2334,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15">
       <c r="A15">
         <v>26</v>
       </c>
@@ -2320,7 +2348,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16">
       <c r="A16">
         <v>28</v>
       </c>
@@ -2334,7 +2362,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17">
       <c r="A17">
         <v>30</v>
       </c>
@@ -2348,7 +2376,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18">
       <c r="A18">
         <v>32</v>
       </c>
@@ -2362,7 +2390,7 @@
         <v>1.3000000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19">
       <c r="A19">
         <v>34</v>
       </c>
@@ -2376,7 +2404,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20">
       <c r="A20">
         <v>36</v>
       </c>
@@ -2390,7 +2418,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21">
       <c r="A21">
         <v>38</v>
       </c>
@@ -2404,7 +2432,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22">
       <c r="A22">
         <v>40</v>
       </c>
@@ -2418,7 +2446,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23">
       <c r="A23">
         <v>42</v>
       </c>
@@ -2432,7 +2460,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24">
       <c r="A24">
         <v>44</v>
       </c>
@@ -2446,7 +2474,7 @@
         <v>1.5000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25">
       <c r="A25">
         <v>46</v>
       </c>
@@ -2460,7 +2488,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26">
       <c r="A26">
         <v>48</v>
       </c>
@@ -2474,7 +2502,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27">
       <c r="A27">
         <v>50</v>
       </c>
@@ -2488,7 +2516,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28">
       <c r="A28">
         <v>52</v>
       </c>
@@ -2502,7 +2530,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29">
       <c r="A29">
         <v>54</v>
       </c>
@@ -2516,7 +2544,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30">
       <c r="A30">
         <v>56</v>
       </c>
@@ -2530,7 +2558,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31">
       <c r="A31">
         <v>58</v>
       </c>
@@ -2544,7 +2572,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32">
       <c r="A32">
         <v>60</v>
       </c>
@@ -2558,7 +2586,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33">
       <c r="A33">
         <v>62</v>
       </c>
@@ -2572,7 +2600,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34">
       <c r="A34">
         <v>64</v>
       </c>
@@ -2586,7 +2614,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35">
       <c r="A35">
         <v>66</v>
       </c>
@@ -2600,7 +2628,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36">
       <c r="A36">
         <v>68</v>
       </c>
@@ -2614,7 +2642,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37">
       <c r="A37">
         <v>70</v>
       </c>
@@ -2628,7 +2656,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38">
       <c r="A38">
         <v>72</v>
       </c>
@@ -2642,7 +2670,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39">
       <c r="A39">
         <v>74</v>
       </c>
@@ -2656,7 +2684,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40">
       <c r="A40">
         <v>76</v>
       </c>
@@ -2670,7 +2698,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41">
       <c r="A41">
         <v>78</v>
       </c>
@@ -2688,4 +2716,944 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.89453125" customWidth="true"/>
+    <col min="2" max="2" width="6.62109375" customWidth="true"/>
+    <col min="3" max="3" width="6.62109375" customWidth="true"/>
+    <col min="4" max="4" width="6.62109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>-0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D4" s="0">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4.5</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1.1500000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>7.5</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1.3</v>
+      </c>
+      <c r="C7" s="0">
+        <v>-0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="C8" s="0">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="D8" s="0">
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>10.5</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" s="0">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="C10" s="0">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="D10" s="0">
+        <v>1.2500000000000002</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>13.5</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="C11" s="0">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1.1500000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.45000000000000001</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>16.5</v>
+      </c>
+      <c r="B13" s="0">
+        <v>-0.050000000000000003</v>
+      </c>
+      <c r="C13" s="0">
+        <v>-0.10000000000000001</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.25</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>19.5</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.5</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>21</v>
+      </c>
+      <c r="B16" s="0">
+        <v>-0.85000000000000009</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="B17" s="0">
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0">
+        <v>-1.3</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>25.5</v>
+      </c>
+      <c r="B19" s="0">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.65000000000000002</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>27</v>
+      </c>
+      <c r="B20" s="0">
+        <v>-0.65000000000000013</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.65000000000000013</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>28.5</v>
+      </c>
+      <c r="B21" s="0">
+        <v>-0.45000000000000001</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>30</v>
+      </c>
+      <c r="B22" s="0">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>31.5</v>
+      </c>
+      <c r="B23" s="0">
+        <v>-1.05</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.75000000000000011</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>33</v>
+      </c>
+      <c r="B24" s="0">
+        <v>-1.2500000000000002</v>
+      </c>
+      <c r="C24" s="0">
+        <v>-0.10000000000000001</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>34.5</v>
+      </c>
+      <c r="B25" s="0">
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="C25" s="0">
+        <v>-0.29999999999999999</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>36</v>
+      </c>
+      <c r="B26" s="0">
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="C26" s="0">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>37.5</v>
+      </c>
+      <c r="B27" s="0">
+        <v>-0.45000000000000001</v>
+      </c>
+      <c r="C27" s="0">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>39</v>
+      </c>
+      <c r="B28" s="0">
+        <v>-0.45000000000000001</v>
+      </c>
+      <c r="C28" s="0">
+        <v>-0.5</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>40.5</v>
+      </c>
+      <c r="B29" s="0">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="C29" s="0">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>42</v>
+      </c>
+      <c r="B30" s="0">
+        <v>-1.05</v>
+      </c>
+      <c r="C30" s="0">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="D30" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>43.5</v>
+      </c>
+      <c r="B31" s="0">
+        <v>-0.95000000000000007</v>
+      </c>
+      <c r="C31" s="0">
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="D31" s="0">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>45</v>
+      </c>
+      <c r="B32" s="0">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C32" s="0">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="0">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>46.5</v>
+      </c>
+      <c r="B33" s="0">
+        <v>-0.20000000000000001</v>
+      </c>
+      <c r="C33" s="0">
+        <v>-0.80000000000000004</v>
+      </c>
+      <c r="D33" s="0">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>48</v>
+      </c>
+      <c r="B34" s="0">
+        <v>-0</v>
+      </c>
+      <c r="C34" s="0">
+        <v>-0.45000000000000001</v>
+      </c>
+      <c r="D34" s="0">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D31"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.89453125" customWidth="true"/>
+    <col min="2" max="2" width="6.62109375" customWidth="true"/>
+    <col min="3" max="3" width="6.62109375" customWidth="true"/>
+    <col min="4" max="4" width="6.62109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>-0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1.1500000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D4" s="0">
+        <v>1.2500000000000002</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4.5</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1.3500000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1.3500000000000001</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>7.5</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="C7" s="0">
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1.25</v>
+      </c>
+      <c r="C8" s="0">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>10.5</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="C9" s="0">
+        <v>-0.95000000000000007</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="C10" s="0">
+        <v>-0.75000000000000011</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>13.5</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0">
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0">
+        <v>-0.10000000000000001</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>16.5</v>
+      </c>
+      <c r="B13" s="0">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="D13" s="0">
+        <v>1.2500000000000002</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.75000000000000011</v>
+      </c>
+      <c r="C14" s="0">
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="D14" s="0">
+        <v>1.1500000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>19.5</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="C15" s="0">
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>21</v>
+      </c>
+      <c r="B16" s="0">
+        <v>-1.3500000000000001</v>
+      </c>
+      <c r="C16" s="0">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="B17" s="0">
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.45000000000000001</v>
+      </c>
+      <c r="D18" s="0">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>25.5</v>
+      </c>
+      <c r="B19" s="0">
+        <v>-0.29999999999999999</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D19" s="0">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>27</v>
+      </c>
+      <c r="B20" s="0">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C20" s="0">
+        <v>-0</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>28.5</v>
+      </c>
+      <c r="B21" s="0">
+        <v>-1.05</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>30</v>
+      </c>
+      <c r="B22" s="0">
+        <v>-1.4000000000000001</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0.75000000000000011</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>31.5</v>
+      </c>
+      <c r="B23" s="0">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="C23" s="0">
+        <v>-0.25</v>
+      </c>
+      <c r="D23" s="0">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>33</v>
+      </c>
+      <c r="B24" s="0">
+        <v>-0.45000000000000001</v>
+      </c>
+      <c r="C24" s="0">
+        <v>-0.40000000000000002</v>
+      </c>
+      <c r="D24" s="0">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>34.5</v>
+      </c>
+      <c r="B25" s="0">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C25" s="0">
+        <v>-0.75</v>
+      </c>
+      <c r="D25" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>36</v>
+      </c>
+      <c r="B26" s="0">
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="C26" s="0">
+        <v>-0.95000000000000007</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>37.5</v>
+      </c>
+      <c r="B27" s="0">
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="C27" s="0">
+        <v>-1.3</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>39</v>
+      </c>
+      <c r="B28" s="0">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="C28" s="0">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="D28" s="0">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>40.5</v>
+      </c>
+      <c r="B29" s="0">
+        <v>-0.10000000000000001</v>
+      </c>
+      <c r="C29" s="0">
+        <v>-0.80000000000000004</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>42</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0">
+        <v>-0.40000000000000002</v>
+      </c>
+      <c r="D30" s="0">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>43.5</v>
+      </c>
+      <c r="B31" s="0">
+        <v>-0.29999999999999999</v>
+      </c>
+      <c r="C31" s="0">
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/reference/functions/spline_curve/waypoint.xlsx
+++ b/reference/functions/spline_curve/waypoint.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakat\Documents\GitHub\drone\reference\functions\spline_curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B35E006-822C-47B7-9D47-C096F0F3C2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E2D7A-1A8E-4F80-901A-EE5824CF3440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="MyNewSheet" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1_15" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1_15d3" sheetId="3" r:id="rId4"/>
-    <sheet name="new" sheetId="5" r:id="rId5"/>
+    <sheet name="MyNewSheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="MyNewSheet" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1_15" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1_15d3" sheetId="3" r:id="rId5"/>
+    <sheet name="new" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>x_wp</t>
     <phoneticPr fontId="1"/>
@@ -823,10 +824,2271 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DBE0EB-8CB3-4B02-893E-DD6D6B404E8C}">
+  <dimension ref="A1:D132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <cols>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="2" max="4" width="6.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f ca="1">20*(RAND()-0.5)</f>
+        <v>4.819505005589555</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:D17" ca="1" si="0">20*(RAND()-0.5)</f>
+        <v>-4.8584283909025006</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.1472571216786012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:D34" ca="1" si="1">20*(RAND()-0.5)</f>
+        <v>-1.20238650679652</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9.024601459009121</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.837524282949877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.3671547035501082</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6511037232466919</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.2443509118636644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.8378049461687471</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.2991260348600768</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54194594273832219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.3743136180111613</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.3672840426297626E-3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.396514030007018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.0639408424291901</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3373906162802491</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3466436999921143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.1250977214473075</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.5690873902498002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6734312830856588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.2726480223666146</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2614700003889201</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6265204986770003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.94549156924925</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.414762825947312</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3233209106409523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.6913791624412502</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9.6839523741975455</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.15895294170138685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.0609493946264177</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.6390941314619987</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7087862661313089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2195683758866442</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6272364662103911</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.8216569451172355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.475068042493314</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.7682817033498619</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.5081376007467124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.0131296383302786</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.8922164824505234</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48314146506927669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.9206462882824211</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.173014412853294</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.37293025589018036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.5095737282484736</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.8502265619986371</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.66331490610680888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.473294630591127</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.7489072590813857</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.6792044772623527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.3769916077267403</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.6055047769829631E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.94379882719915376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2704362371628193</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.6105833864950245</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.5451295720000395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>190</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.4545380924576321</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.751891046034908E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9652547946163632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.0147406480407799</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>-8.1210436361117537</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.6380415871380229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>210</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4711320762716129</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.6265349715359489</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.2613233655039142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>220</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.5697652857163211</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.242106532366634</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8648326478368791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>230</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.839244313375203</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4254008699281782</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.437406733018701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3751435505323757</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.330482198470218</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.6321303308586916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>250</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8623147162204701</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.8160422696015068</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1628679183735877</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>260</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7486281934531354</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.5261660037836045</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.9997514611895379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>270</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.4586956573141876</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.7667715448571322</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4846488488761853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>280</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.0588012202310502</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.4334014980760053</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>-8.995296852770128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>290</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.165173812245742</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.8877520011084954</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.5532690866693279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.6175446128463591</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2519366909998149</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.5279358912689842</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>310</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.6490147801780184</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.6771395400760483</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.895244485046268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>320</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.8659584490607095</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.0022124589246202</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.31595952305122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>330</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:D66" ca="1" si="2">20*(RAND()-0.5)</f>
+        <v>-1.150486527786867</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.0010901467815216</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.2020496537349565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>340</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.684605126689108</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="2"/>
+        <v>-8.8219301227996105</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16308125147413532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>350</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.5944188644235986</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.4800026481263622</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.5382476601108479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>360</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.5154711708280075</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82424540578643013</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5493750735246969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>370</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.23110147304387541</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7.8458283932250694</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.6862152520506335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>380</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6296748668937582</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5093274543778348</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.234247355661295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>390</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.2878260383143072</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="2"/>
+        <v>-8.5341804948207223</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.8172009384900587</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>400</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.284869246314841</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45328387047788299</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.9932774589147924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>410</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="2"/>
+        <v>-5.3359876771996912</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21263159991166125</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1436501989748891</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>420</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.4278484262483726</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.9381554563852577</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.9954871915150711</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>430</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.7099875103442592</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.9919157434427746</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.1442086743757827</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>440</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.8766430766484299</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7.7859759466397733</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.9510067573363541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>450</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.9861993359555563</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.26062351852000454</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.36441057163710822</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>460</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.924550588846019</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.8955677005155991</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.2227635484857693</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>470</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.9334176294112471</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="2"/>
+        <v>-5.113560138771005</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.1474138332080335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>480</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.8410465419214432</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8814756180107093</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.148022793660866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>490</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.74077743854634281</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7.2841612263924489</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="2"/>
+        <v>-5.2746043451199176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>500</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.18268053007556295</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.99771994383861307</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.0652899110070768</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>510</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2689795967068869</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.1358904643637455</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="2"/>
+        <v>-5.0159156069464128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>520</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.8850941775892291</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.2810162039409416</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="2"/>
+        <v>-8.1182978823969556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>530</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.9141776209398165</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3189976635470155</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.6347271568919028</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>540</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.5942862346082149</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.738919380547634</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.58564009314852949</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>550</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.6247259997906891</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7.1174542394565172</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.20418855384646495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>560</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.05484285878563</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0466166766635219</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.1752820670505457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>570</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.0861937527159391</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.78036254714104247</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.1659917209445858</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>580</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5780996932205293</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.1596576644137393</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.108171633301188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>590</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85937732989839422</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.7423327415331933</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.4266925474625132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>600</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7.4347809558631006</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.5186874691138144</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.1835050892830949</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>610</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.21393876407519219</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.183577161967003</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7978782072303412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>620</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.7374690083844495</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.6559289118297893</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.5876252435968863</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>630</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.181818244545001</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.5755954995558383</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.6483143813084915</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>640</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.8018643464742201</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.6419870530047858</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.9379058766714419</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>650</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:D98" ca="1" si="3">20*(RAND()-0.5)</f>
+        <v>9.8089927340730849</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.081465447725952</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0108645306851689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>660</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.3773361044757984</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="3"/>
+        <v>-8.3701489769704338</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.4673399842402031E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>670</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.8451684371544523</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="3"/>
+        <v>-9.2079434974833081</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.0279755904711463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>680</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.5059265636874022</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.9471681016968687</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.15599722097609625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>690</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.8782109048959037</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.354590232856367</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5081392248628185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>700</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.0196172258797187</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0364330570115126</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.253981188662145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>710</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.4449512700285307</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.70194963121984255</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="3"/>
+        <v>-9.3034005832245352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>720</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.2256038505281923</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.059271848466572</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0686497600736793</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>730</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.8781990499604611</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.4683392276648708</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.0164750406848064</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>740</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.3376682884111357</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="3"/>
+        <v>-8.9906583337694386</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="3"/>
+        <v>-8.2014039808185295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>750</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.0631974794146508</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.7266187230443073</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.3089830385107399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>760</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0335299562180573</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="3"/>
+        <v>-8.995933004261671</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="3"/>
+        <v>-8.7404240601369292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>770</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.7067622947089527</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35782346194241033</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.74582669105946575</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>780</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.96325112926111567</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0245431673724381</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.9187257440657994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>790</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1031949530209495</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.3360662393146345</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.3442243100194404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>800</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.8348218922280175</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.5697443291859265</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.27753836198200377</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>815</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.3131173140167798</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.4529847246942813</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.4073251352920622</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>830</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0392438074534898</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.2557947006228796</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0709014722721362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>845</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.4887562021872807</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.5678900562960725</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2188107809789148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>860</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.169585863523301</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0285539353700468</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.4805518892459713</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>875</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.5884920991266842</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4483882028843884</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.2904668057858135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>890</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24207069570967743</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="3"/>
+        <v>-6.3917681934511839</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.8805044333330807</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>905</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="3"/>
+        <v>-8.12886782544658</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.915550212276413</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6174476418117911</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>920</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.8167452282568588</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6316740326558588</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.89570965158479732</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>935</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6875418637422657</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.7516835021413044</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="3"/>
+        <v>-8.7988860348132469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>950</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.4202645478352527</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="3"/>
+        <v>-9.8197754345160924</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.359941005897106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>965</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.0800820871854455</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="3"/>
+        <v>-6.5768214324804113</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="3"/>
+        <v>-9.1132230412403619</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>980</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.0277297906930158</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.32420112915604982</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="3"/>
+        <v>-8.297223093330615</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>995</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.4556737762855771</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="3"/>
+        <v>-9.9275791522817762</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.2772171487196489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>1010</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.6107933416348565</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.512603733976678</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.6763779370485588</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>1025</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.6450746781508059</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="3"/>
+        <v>-8.6457051926979762</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.8873122921478345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>1040</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.6065284525466037</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.3378966859136465</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="3"/>
+        <v>-6.7235702408333742</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>1055</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99:D132" ca="1" si="4">20*(RAND()-0.5)</f>
+        <v>-5.1505126577739606</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="4"/>
+        <v>-9.5926233670188807</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.1619696207033012</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>1070</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.80256531436006417</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.8229598643039413</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.1986496024213498</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>1085</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.8569531842218474</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.3595622182222771</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="4"/>
+        <v>-9.4981807452685239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>1100</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.6090220682828149</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.610711843765702</v>
+      </c>
+      <c r="D102">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8113667414116574</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>1115</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.745477018614328</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.5961374186947253</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.9933851728390892</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>1130</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.2218694546765629</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.2270417571563197</v>
+      </c>
+      <c r="D104">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.6051608934396588</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>1145</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.5808690555902096</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.188644319507056</v>
+      </c>
+      <c r="D105">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.4290443343407313</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>1160</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.637133803411543</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.992580314692205</v>
+      </c>
+      <c r="D106">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.1595404395122859</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>1175</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.5264391676508087</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.5935879297035029</v>
+      </c>
+      <c r="D107">
+        <f t="shared" ca="1" si="4"/>
+        <v>-7.3122177510781032</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>1190</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.5922041697935141</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.2254466163385045</v>
+      </c>
+      <c r="D108">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.3694047181561295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>1205</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.9288361302649211</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.2475137847285334</v>
+      </c>
+      <c r="D109">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.82645682712485069</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>1220</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.4273995466970089</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.32306031201273511</v>
+      </c>
+      <c r="D110">
+        <f t="shared" ca="1" si="4"/>
+        <v>-9.1985100656558654</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>1235</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.66934184003164</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.9671333888946831</v>
+      </c>
+      <c r="D111">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.2896731849227452</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>1250</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.2686180154123292</v>
+      </c>
+      <c r="C112">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.1645872345005621</v>
+      </c>
+      <c r="D112">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.63229922300701791</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>1265</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.0577261665869919</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.5471388036029845</v>
+      </c>
+      <c r="D113">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.12536262947655</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>1280</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8258442856253665</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ca="1" si="4"/>
+        <v>-9.4341945824246736</v>
+      </c>
+      <c r="D114">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.5045888296809338</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>1295</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.72224192845686597</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.59881026497319745</v>
+      </c>
+      <c r="D115">
+        <f t="shared" ca="1" si="4"/>
+        <v>-7.2994880764914072</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>1310</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.3988872479696646</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.6958926859288006</v>
+      </c>
+      <c r="D116">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0932998060836754</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>1325</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.9420240767065553</v>
+      </c>
+      <c r="C117">
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.519627179433102</v>
+      </c>
+      <c r="D117">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.8185263989937415</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>1340</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.437561724024877</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.2134850947601303</v>
+      </c>
+      <c r="D118">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.3973273185288257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>1355</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.87112686457462729</v>
+      </c>
+      <c r="C119">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.36506159968303198</v>
+      </c>
+      <c r="D119">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.1312895698914094</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>1370</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1547297764835318</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ca="1" si="4"/>
+        <v>-8.5514914214851601</v>
+      </c>
+      <c r="D120">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.5662603292197446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>1385</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.5478507281203604</v>
+      </c>
+      <c r="C121">
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.2230188512737836</v>
+      </c>
+      <c r="D121">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8167968169837008</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>1400</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ca="1" si="4"/>
+        <v>-8.1645670652782947</v>
+      </c>
+      <c r="C122">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.4593462260470345</v>
+      </c>
+      <c r="D122">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.3491253482695438</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>1415</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.0178113279785173</v>
+      </c>
+      <c r="C123">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.8336303195859163</v>
+      </c>
+      <c r="D123">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.9395475668139159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>1430</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.0160571131302829</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2224599148694715</v>
+      </c>
+      <c r="D124">
+        <f t="shared" ca="1" si="4"/>
+        <v>-8.4467301933484418</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>1445</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.2795765608700194</v>
+      </c>
+      <c r="C125">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.4590787927397315</v>
+      </c>
+      <c r="D125">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.1035262837481574</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>1460</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.3357901914897048</v>
+      </c>
+      <c r="C126">
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.9374173514801765</v>
+      </c>
+      <c r="D126">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.3604483969575698</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>1475</v>
+      </c>
+      <c r="B127">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.5941172850844882</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4578763225532168</v>
+      </c>
+      <c r="D127">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4215516219505471</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>1490</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.1223591528766947</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ca="1" si="4"/>
+        <v>-8.2699960194421056</v>
+      </c>
+      <c r="D128">
+        <f t="shared" ca="1" si="4"/>
+        <v>-9.3924321417914847</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>1505</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.17684123913781491</v>
+      </c>
+      <c r="C129">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.420057828779171</v>
+      </c>
+      <c r="D129">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.785236017644853</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>1520</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4866170936873169</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.3727605273293273</v>
+      </c>
+      <c r="D130">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.6160834056364157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>1535</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.3015006137264864</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.2027177978253842</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.6128189840913993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>1550</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.717701300741163</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.2962642466013161</v>
+      </c>
+      <c r="D132">
+        <f t="shared" ca="1" si="4"/>
+        <v>-8.1265009013255316</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2690,7 +4952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -3071,7 +5333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -3452,7 +5714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>

--- a/reference/functions/spline_curve/waypoint.xlsx
+++ b/reference/functions/spline_curve/waypoint.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakat\Documents\GitHub\drone\reference\functions\spline_curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E2D7A-1A8E-4F80-901A-EE5824CF3440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B35E006-822C-47B7-9D47-C096F0F3C2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="MyNewSheet2" sheetId="6" r:id="rId2"/>
-    <sheet name="MyNewSheet" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1_15" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1_15d3" sheetId="3" r:id="rId5"/>
-    <sheet name="new" sheetId="5" r:id="rId6"/>
+    <sheet name="MyNewSheet" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1_15" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1_15d3" sheetId="3" r:id="rId4"/>
+    <sheet name="new" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>x_wp</t>
     <phoneticPr fontId="1"/>
@@ -824,2271 +823,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DBE0EB-8CB3-4B02-893E-DD6D6B404E8C}">
-  <dimension ref="A1:D132"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
-  <cols>
-    <col min="1" max="1" width="5.90625" customWidth="1"/>
-    <col min="2" max="4" width="6.86328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f ca="1">20*(RAND()-0.5)</f>
-        <v>4.819505005589555</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:D17" ca="1" si="0">20*(RAND()-0.5)</f>
-        <v>-4.8584283909025006</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8.1472571216786012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:D34" ca="1" si="1">20*(RAND()-0.5)</f>
-        <v>-1.20238650679652</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9.024601459009121</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.837524282949877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.3671547035501082</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6511037232466919</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8.2443509118636644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7.8378049461687471</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.2991260348600768</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.54194594273832219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3743136180111613</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7.3672840426297626E-3</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.396514030007018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7.0639408424291901</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3373906162802491</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3466436999921143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>60</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.1250977214473075</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7.5690873902498002</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6734312830856588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.2726480223666146</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2614700003889201</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.6265204986770003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>80</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.94549156924925</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.414762825947312</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.3233209106409523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>90</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.6913791624412502</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9.6839523741975455</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.15895294170138685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.0609493946264177</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.6390941314619987</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.7087862661313089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>110</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.2195683758866442</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.6272364662103911</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.8216569451172355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>120</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.475068042493314</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.7682817033498619</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.5081376007467124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>130</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.0131296383302786</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5.8922164824505234</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48314146506927669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>140</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.9206462882824211</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.173014412853294</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.37293025589018036</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>150</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.5095737282484736</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7.8502265619986371</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.66331490610680888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>160</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.473294630591127</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.7489072590813857</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.6792044772623527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>170</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="1"/>
-        <v>-9.3769916077267403</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7.6055047769829631E-2</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.94379882719915376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>180</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2704362371628193</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.6105833864950245</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.5451295720000395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>190</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.4545380924576321</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.751891046034908E-2</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.9652547946163632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>200</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.0147406480407799</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.1210436361117537</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.6380415871380229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>210</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4711320762716129</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.6265349715359489</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.2613233655039142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>220</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5697652857163211</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.242106532366634</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.8648326478368791</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>230</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.839244313375203</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.4254008699281782</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.437406733018701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>240</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.3751435505323757</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.330482198470218</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.6321303308586916</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>250</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8623147162204701</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.8160422696015068</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.1628679183735877</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>260</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7486281934531354</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.5261660037836045</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.9997514611895379</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>270</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.4586956573141876</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.7667715448571322</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4846488488761853</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>280</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.0588012202310502</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.4334014980760053</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.995296852770128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>290</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.165173812245742</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.8877520011084954</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.5532690866693279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>300</v>
-      </c>
-      <c r="B32">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7.6175446128463591</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2519366909998149</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.5279358912689842</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>310</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6490147801780184</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6771395400760483</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.895244485046268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>320</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.8659584490607095</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.0022124589246202</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.31595952305122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>330</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ref="B35:D66" ca="1" si="2">20*(RAND()-0.5)</f>
-        <v>-1.150486527786867</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.0010901467815216</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.2020496537349565</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>340</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.684605126689108</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ca="1" si="2"/>
-        <v>-8.8219301227996105</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16308125147413532</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>350</v>
-      </c>
-      <c r="B37">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.5944188644235986</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.4800026481263622</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.5382476601108479</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>360</v>
-      </c>
-      <c r="B38">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2.5154711708280075</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.82424540578643013</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.5493750735246969</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>370</v>
-      </c>
-      <c r="B39">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.23110147304387541</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ca="1" si="2"/>
-        <v>-7.8458283932250694</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6862152520506335</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>380</v>
-      </c>
-      <c r="B40">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.6296748668937582</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.5093274543778348</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.234247355661295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>390</v>
-      </c>
-      <c r="B41">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.2878260383143072</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ca="1" si="2"/>
-        <v>-8.5341804948207223</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.8172009384900587</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>400</v>
-      </c>
-      <c r="B42">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.284869246314841</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.45328387047788299</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ca="1" si="2"/>
-        <v>-3.9932774589147924</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>410</v>
-      </c>
-      <c r="B43">
-        <f t="shared" ca="1" si="2"/>
-        <v>-5.3359876771996912</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21263159991166125</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1436501989748891</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>420</v>
-      </c>
-      <c r="B44">
-        <f t="shared" ca="1" si="2"/>
-        <v>-6.4278484262483726</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1.9381554563852577</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.9954871915150711</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>430</v>
-      </c>
-      <c r="B45">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.7099875103442592</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9.9919157434427746</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2.1442086743757827</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>440</v>
-      </c>
-      <c r="B46">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1.8766430766484299</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ca="1" si="2"/>
-        <v>-7.7859759466397733</v>
-      </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2.9510067573363541</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>450</v>
-      </c>
-      <c r="B47">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1.9861993359555563</v>
-      </c>
-      <c r="C47">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.26062351852000454</v>
-      </c>
-      <c r="D47">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.36441057163710822</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>460</v>
-      </c>
-      <c r="B48">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.924550588846019</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.8955677005155991</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9.2227635484857693</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>470</v>
-      </c>
-      <c r="B49">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.9334176294112471</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ca="1" si="2"/>
-        <v>-5.113560138771005</v>
-      </c>
-      <c r="D49">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.1474138332080335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>480</v>
-      </c>
-      <c r="B50">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.8410465419214432</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.8814756180107093</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.148022793660866</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>490</v>
-      </c>
-      <c r="B51">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.74077743854634281</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ca="1" si="2"/>
-        <v>-7.2841612263924489</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ca="1" si="2"/>
-        <v>-5.2746043451199176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>500</v>
-      </c>
-      <c r="B52">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.18268053007556295</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.99771994383861307</v>
-      </c>
-      <c r="D52">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1.0652899110070768</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>510</v>
-      </c>
-      <c r="B53">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.2689795967068869</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9.1358904643637455</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ca="1" si="2"/>
-        <v>-5.0159156069464128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>520</v>
-      </c>
-      <c r="B54">
-        <f t="shared" ca="1" si="2"/>
-        <v>-4.8850941775892291</v>
-      </c>
-      <c r="C54">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.2810162039409416</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ca="1" si="2"/>
-        <v>-8.1182978823969556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>530</v>
-      </c>
-      <c r="B55">
-        <f t="shared" ca="1" si="2"/>
-        <v>-6.9141776209398165</v>
-      </c>
-      <c r="C55">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.3189976635470155</v>
-      </c>
-      <c r="D55">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2.6347271568919028</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>540</v>
-      </c>
-      <c r="B56">
-        <f t="shared" ca="1" si="2"/>
-        <v>-3.5942862346082149</v>
-      </c>
-      <c r="C56">
-        <f t="shared" ca="1" si="2"/>
-        <v>-3.738919380547634</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.58564009314852949</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>550</v>
-      </c>
-      <c r="B57">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9.6247259997906891</v>
-      </c>
-      <c r="C57">
-        <f t="shared" ca="1" si="2"/>
-        <v>-7.1174542394565172</v>
-      </c>
-      <c r="D57">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.20418855384646495</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>560</v>
-      </c>
-      <c r="B58">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.05484285878563</v>
-      </c>
-      <c r="C58">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.0466166766635219</v>
-      </c>
-      <c r="D58">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.1752820670505457</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>570</v>
-      </c>
-      <c r="B59">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9.0861937527159391</v>
-      </c>
-      <c r="C59">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.78036254714104247</v>
-      </c>
-      <c r="D59">
-        <f t="shared" ca="1" si="2"/>
-        <v>-6.1659917209445858</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>580</v>
-      </c>
-      <c r="B60">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5780996932205293</v>
-      </c>
-      <c r="C60">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9.1596576644137393</v>
-      </c>
-      <c r="D60">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.108171633301188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>590</v>
-      </c>
-      <c r="B61">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.85937732989839422</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9.7423327415331933</v>
-      </c>
-      <c r="D61">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.4266925474625132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>600</v>
-      </c>
-      <c r="B62">
-        <f t="shared" ca="1" si="2"/>
-        <v>-7.4347809558631006</v>
-      </c>
-      <c r="C62">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.5186874691138144</v>
-      </c>
-      <c r="D62">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.1835050892830949</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>610</v>
-      </c>
-      <c r="B63">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.21393876407519219</v>
-      </c>
-      <c r="C63">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.183577161967003</v>
-      </c>
-      <c r="D63">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.7978782072303412</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>620</v>
-      </c>
-      <c r="B64">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.7374690083844495</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.6559289118297893</v>
-      </c>
-      <c r="D64">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1.5876252435968863</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>630</v>
-      </c>
-      <c r="B65">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9.181818244545001</v>
-      </c>
-      <c r="C65">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2.5755954995558383</v>
-      </c>
-      <c r="D65">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6483143813084915</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>640</v>
-      </c>
-      <c r="B66">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.8018643464742201</v>
-      </c>
-      <c r="C66">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.6419870530047858</v>
-      </c>
-      <c r="D66">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.9379058766714419</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>650</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ref="B67:D98" ca="1" si="3">20*(RAND()-0.5)</f>
-        <v>9.8089927340730849</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ca="1" si="3"/>
-        <v>-2.081465447725952</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.0108645306851689</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>660</v>
-      </c>
-      <c r="B68">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.3773361044757984</v>
-      </c>
-      <c r="C68">
-        <f t="shared" ca="1" si="3"/>
-        <v>-8.3701489769704338</v>
-      </c>
-      <c r="D68">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.4673399842402031E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>670</v>
-      </c>
-      <c r="B69">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.8451684371544523</v>
-      </c>
-      <c r="C69">
-        <f t="shared" ca="1" si="3"/>
-        <v>-9.2079434974833081</v>
-      </c>
-      <c r="D69">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.0279755904711463</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>680</v>
-      </c>
-      <c r="B70">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5.5059265636874022</v>
-      </c>
-      <c r="C70">
-        <f t="shared" ca="1" si="3"/>
-        <v>-2.9471681016968687</v>
-      </c>
-      <c r="D70">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.15599722097609625</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>690</v>
-      </c>
-      <c r="B71">
-        <f t="shared" ca="1" si="3"/>
-        <v>-2.8782109048959037</v>
-      </c>
-      <c r="C71">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.354590232856367</v>
-      </c>
-      <c r="D71">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.5081392248628185</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>700</v>
-      </c>
-      <c r="B72">
-        <f t="shared" ca="1" si="3"/>
-        <v>-4.0196172258797187</v>
-      </c>
-      <c r="C72">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.0364330570115126</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.253981188662145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>710</v>
-      </c>
-      <c r="B73">
-        <f t="shared" ca="1" si="3"/>
-        <v>-7.4449512700285307</v>
-      </c>
-      <c r="C73">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.70194963121984255</v>
-      </c>
-      <c r="D73">
-        <f t="shared" ca="1" si="3"/>
-        <v>-9.3034005832245352</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>720</v>
-      </c>
-      <c r="B74">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.2256038505281923</v>
-      </c>
-      <c r="C74">
-        <f t="shared" ca="1" si="3"/>
-        <v>-1.059271848466572</v>
-      </c>
-      <c r="D74">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.0686497600736793</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>730</v>
-      </c>
-      <c r="B75">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.8781990499604611</v>
-      </c>
-      <c r="C75">
-        <f t="shared" ca="1" si="3"/>
-        <v>-2.4683392276648708</v>
-      </c>
-      <c r="D75">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5.0164750406848064</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>740</v>
-      </c>
-      <c r="B76">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.3376682884111357</v>
-      </c>
-      <c r="C76">
-        <f t="shared" ca="1" si="3"/>
-        <v>-8.9906583337694386</v>
-      </c>
-      <c r="D76">
-        <f t="shared" ca="1" si="3"/>
-        <v>-8.2014039808185295</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>750</v>
-      </c>
-      <c r="B77">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.0631974794146508</v>
-      </c>
-      <c r="C77">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.7266187230443073</v>
-      </c>
-      <c r="D77">
-        <f t="shared" ca="1" si="3"/>
-        <v>-3.3089830385107399</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>760</v>
-      </c>
-      <c r="B78">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.0335299562180573</v>
-      </c>
-      <c r="C78">
-        <f t="shared" ca="1" si="3"/>
-        <v>-8.995933004261671</v>
-      </c>
-      <c r="D78">
-        <f t="shared" ca="1" si="3"/>
-        <v>-8.7404240601369292</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>770</v>
-      </c>
-      <c r="B79">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.7067622947089527</v>
-      </c>
-      <c r="C79">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.35782346194241033</v>
-      </c>
-      <c r="D79">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.74582669105946575</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>780</v>
-      </c>
-      <c r="B80">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.96325112926111567</v>
-      </c>
-      <c r="C80">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0245431673724381</v>
-      </c>
-      <c r="D80">
-        <f t="shared" ca="1" si="3"/>
-        <v>-7.9187257440657994</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>790</v>
-      </c>
-      <c r="B81">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1031949530209495</v>
-      </c>
-      <c r="C81">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5.3360662393146345</v>
-      </c>
-      <c r="D81">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.3442243100194404</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>800</v>
-      </c>
-      <c r="B82">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.8348218922280175</v>
-      </c>
-      <c r="C82">
-        <f t="shared" ca="1" si="3"/>
-        <v>-3.5697443291859265</v>
-      </c>
-      <c r="D82">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.27753836198200377</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>815</v>
-      </c>
-      <c r="B83">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5.3131173140167798</v>
-      </c>
-      <c r="C83">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.4529847246942813</v>
-      </c>
-      <c r="D83">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.4073251352920622</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>830</v>
-      </c>
-      <c r="B84">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.0392438074534898</v>
-      </c>
-      <c r="C84">
-        <f t="shared" ca="1" si="3"/>
-        <v>-2.2557947006228796</v>
-      </c>
-      <c r="D84">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.0709014722721362</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>845</v>
-      </c>
-      <c r="B85">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4887562021872807</v>
-      </c>
-      <c r="C85">
-        <f t="shared" ca="1" si="3"/>
-        <v>-3.5678900562960725</v>
-      </c>
-      <c r="D85">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.2188107809789148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>860</v>
-      </c>
-      <c r="B86">
-        <f t="shared" ca="1" si="3"/>
-        <v>-3.169585863523301</v>
-      </c>
-      <c r="C86">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0285539353700468</v>
-      </c>
-      <c r="D86">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4805518892459713</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>875</v>
-      </c>
-      <c r="B87">
-        <f t="shared" ca="1" si="3"/>
-        <v>-4.5884920991266842</v>
-      </c>
-      <c r="C87">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.4483882028843884</v>
-      </c>
-      <c r="D87">
-        <f t="shared" ca="1" si="3"/>
-        <v>-2.2904668057858135</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>890</v>
-      </c>
-      <c r="B88">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.24207069570967743</v>
-      </c>
-      <c r="C88">
-        <f t="shared" ca="1" si="3"/>
-        <v>-6.3917681934511839</v>
-      </c>
-      <c r="D88">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.8805044333330807</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
-        <v>905</v>
-      </c>
-      <c r="B89">
-        <f t="shared" ca="1" si="3"/>
-        <v>-8.12886782544658</v>
-      </c>
-      <c r="C89">
-        <f t="shared" ca="1" si="3"/>
-        <v>-3.915550212276413</v>
-      </c>
-      <c r="D89">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.6174476418117911</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>920</v>
-      </c>
-      <c r="B90">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.8167452282568588</v>
-      </c>
-      <c r="C90">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.6316740326558588</v>
-      </c>
-      <c r="D90">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.89570965158479732</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
-        <v>935</v>
-      </c>
-      <c r="B91">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.6875418637422657</v>
-      </c>
-      <c r="C91">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5.7516835021413044</v>
-      </c>
-      <c r="D91">
-        <f t="shared" ca="1" si="3"/>
-        <v>-8.7988860348132469</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
-        <v>950</v>
-      </c>
-      <c r="B92">
-        <f t="shared" ca="1" si="3"/>
-        <v>-1.4202645478352527</v>
-      </c>
-      <c r="C92">
-        <f t="shared" ca="1" si="3"/>
-        <v>-9.8197754345160924</v>
-      </c>
-      <c r="D92">
-        <f t="shared" ca="1" si="3"/>
-        <v>-7.359941005897106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
-        <v>965</v>
-      </c>
-      <c r="B93">
-        <f t="shared" ca="1" si="3"/>
-        <v>-4.0800820871854455</v>
-      </c>
-      <c r="C93">
-        <f t="shared" ca="1" si="3"/>
-        <v>-6.5768214324804113</v>
-      </c>
-      <c r="D93">
-        <f t="shared" ca="1" si="3"/>
-        <v>-9.1132230412403619</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>980</v>
-      </c>
-      <c r="B94">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.0277297906930158</v>
-      </c>
-      <c r="C94">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.32420112915604982</v>
-      </c>
-      <c r="D94">
-        <f t="shared" ca="1" si="3"/>
-        <v>-8.297223093330615</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>995</v>
-      </c>
-      <c r="B95">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.4556737762855771</v>
-      </c>
-      <c r="C95">
-        <f t="shared" ca="1" si="3"/>
-        <v>-9.9275791522817762</v>
-      </c>
-      <c r="D95">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.2772171487196489</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>1010</v>
-      </c>
-      <c r="B96">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.6107933416348565</v>
-      </c>
-      <c r="C96">
-        <f t="shared" ca="1" si="3"/>
-        <v>-3.512603733976678</v>
-      </c>
-      <c r="D96">
-        <f t="shared" ca="1" si="3"/>
-        <v>-1.6763779370485588</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>1025</v>
-      </c>
-      <c r="B97">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5.6450746781508059</v>
-      </c>
-      <c r="C97">
-        <f t="shared" ca="1" si="3"/>
-        <v>-8.6457051926979762</v>
-      </c>
-      <c r="D97">
-        <f t="shared" ca="1" si="3"/>
-        <v>-2.8873122921478345</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>1040</v>
-      </c>
-      <c r="B98">
-        <f t="shared" ca="1" si="3"/>
-        <v>-2.6065284525466037</v>
-      </c>
-      <c r="C98">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.3378966859136465</v>
-      </c>
-      <c r="D98">
-        <f t="shared" ca="1" si="3"/>
-        <v>-6.7235702408333742</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
-        <v>1055</v>
-      </c>
-      <c r="B99">
-        <f t="shared" ref="B99:D132" ca="1" si="4">20*(RAND()-0.5)</f>
-        <v>-5.1505126577739606</v>
-      </c>
-      <c r="C99">
-        <f t="shared" ca="1" si="4"/>
-        <v>-9.5926233670188807</v>
-      </c>
-      <c r="D99">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.1619696207033012</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
-        <v>1070</v>
-      </c>
-      <c r="B100">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.80256531436006417</v>
-      </c>
-      <c r="C100">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.8229598643039413</v>
-      </c>
-      <c r="D100">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.1986496024213498</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
-        <v>1085</v>
-      </c>
-      <c r="B101">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8569531842218474</v>
-      </c>
-      <c r="C101">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.3595622182222771</v>
-      </c>
-      <c r="D101">
-        <f t="shared" ca="1" si="4"/>
-        <v>-9.4981807452685239</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
-        <v>1100</v>
-      </c>
-      <c r="B102">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.6090220682828149</v>
-      </c>
-      <c r="C102">
-        <f t="shared" ca="1" si="4"/>
-        <v>-6.610711843765702</v>
-      </c>
-      <c r="D102">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8113667414116574</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
-        <v>1115</v>
-      </c>
-      <c r="B103">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.745477018614328</v>
-      </c>
-      <c r="C103">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.5961374186947253</v>
-      </c>
-      <c r="D103">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.9933851728390892</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104">
-        <v>1130</v>
-      </c>
-      <c r="B104">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4.2218694546765629</v>
-      </c>
-      <c r="C104">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4.2270417571563197</v>
-      </c>
-      <c r="D104">
-        <f t="shared" ca="1" si="4"/>
-        <v>-6.6051608934396588</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>1145</v>
-      </c>
-      <c r="B105">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.5808690555902096</v>
-      </c>
-      <c r="C105">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.188644319507056</v>
-      </c>
-      <c r="D105">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.4290443343407313</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106">
-        <v>1160</v>
-      </c>
-      <c r="B106">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.637133803411543</v>
-      </c>
-      <c r="C106">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.992580314692205</v>
-      </c>
-      <c r="D106">
-        <f t="shared" ca="1" si="4"/>
-        <v>-6.1595404395122859</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107">
-        <v>1175</v>
-      </c>
-      <c r="B107">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4.5264391676508087</v>
-      </c>
-      <c r="C107">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.5935879297035029</v>
-      </c>
-      <c r="D107">
-        <f t="shared" ca="1" si="4"/>
-        <v>-7.3122177510781032</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
-        <v>1190</v>
-      </c>
-      <c r="B108">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.5922041697935141</v>
-      </c>
-      <c r="C108">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.2254466163385045</v>
-      </c>
-      <c r="D108">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3694047181561295</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109">
-        <v>1205</v>
-      </c>
-      <c r="B109">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.9288361302649211</v>
-      </c>
-      <c r="C109">
-        <f t="shared" ca="1" si="4"/>
-        <v>-6.2475137847285334</v>
-      </c>
-      <c r="D109">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.82645682712485069</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110">
-        <v>1220</v>
-      </c>
-      <c r="B110">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.4273995466970089</v>
-      </c>
-      <c r="C110">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.32306031201273511</v>
-      </c>
-      <c r="D110">
-        <f t="shared" ca="1" si="4"/>
-        <v>-9.1985100656558654</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111">
-        <v>1235</v>
-      </c>
-      <c r="B111">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.66934184003164</v>
-      </c>
-      <c r="C111">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.9671333888946831</v>
-      </c>
-      <c r="D111">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2896731849227452</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112">
-        <v>1250</v>
-      </c>
-      <c r="B112">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5.2686180154123292</v>
-      </c>
-      <c r="C112">
-        <f t="shared" ca="1" si="4"/>
-        <v>-6.1645872345005621</v>
-      </c>
-      <c r="D112">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.63229922300701791</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113">
-        <v>1265</v>
-      </c>
-      <c r="B113">
-        <f t="shared" ca="1" si="4"/>
-        <v>-6.0577261665869919</v>
-      </c>
-      <c r="C113">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5.5471388036029845</v>
-      </c>
-      <c r="D113">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.12536262947655</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114">
-        <v>1280</v>
-      </c>
-      <c r="B114">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8258442856253665</v>
-      </c>
-      <c r="C114">
-        <f t="shared" ca="1" si="4"/>
-        <v>-9.4341945824246736</v>
-      </c>
-      <c r="D114">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.5045888296809338</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115">
-        <v>1295</v>
-      </c>
-      <c r="B115">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.72224192845686597</v>
-      </c>
-      <c r="C115">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.59881026497319745</v>
-      </c>
-      <c r="D115">
-        <f t="shared" ca="1" si="4"/>
-        <v>-7.2994880764914072</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116">
-        <v>1310</v>
-      </c>
-      <c r="B116">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.3988872479696646</v>
-      </c>
-      <c r="C116">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5.6958926859288006</v>
-      </c>
-      <c r="D116">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0932998060836754</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117">
-        <v>1325</v>
-      </c>
-      <c r="B117">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.9420240767065553</v>
-      </c>
-      <c r="C117">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5.519627179433102</v>
-      </c>
-      <c r="D117">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.8185263989937415</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118">
-        <v>1340</v>
-      </c>
-      <c r="B118">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.437561724024877</v>
-      </c>
-      <c r="C118">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.2134850947601303</v>
-      </c>
-      <c r="D118">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.3973273185288257</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119">
-        <v>1355</v>
-      </c>
-      <c r="B119">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.87112686457462729</v>
-      </c>
-      <c r="C119">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.36506159968303198</v>
-      </c>
-      <c r="D119">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4.1312895698914094</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120">
-        <v>1370</v>
-      </c>
-      <c r="B120">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.1547297764835318</v>
-      </c>
-      <c r="C120">
-        <f t="shared" ca="1" si="4"/>
-        <v>-8.5514914214851601</v>
-      </c>
-      <c r="D120">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4.5662603292197446</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121">
-        <v>1385</v>
-      </c>
-      <c r="B121">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.5478507281203604</v>
-      </c>
-      <c r="C121">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5.2230188512737836</v>
-      </c>
-      <c r="D121">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.8167968169837008</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122">
-        <v>1400</v>
-      </c>
-      <c r="B122">
-        <f t="shared" ca="1" si="4"/>
-        <v>-8.1645670652782947</v>
-      </c>
-      <c r="C122">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.4593462260470345</v>
-      </c>
-      <c r="D122">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.3491253482695438</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123">
-        <v>1415</v>
-      </c>
-      <c r="B123">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.0178113279785173</v>
-      </c>
-      <c r="C123">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.8336303195859163</v>
-      </c>
-      <c r="D123">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.9395475668139159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124">
-        <v>1430</v>
-      </c>
-      <c r="B124">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.0160571131302829</v>
-      </c>
-      <c r="C124">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.2224599148694715</v>
-      </c>
-      <c r="D124">
-        <f t="shared" ca="1" si="4"/>
-        <v>-8.4467301933484418</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125">
-        <v>1445</v>
-      </c>
-      <c r="B125">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.2795765608700194</v>
-      </c>
-      <c r="C125">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.4590787927397315</v>
-      </c>
-      <c r="D125">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.1035262837481574</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126">
-        <v>1460</v>
-      </c>
-      <c r="B126">
-        <f t="shared" ca="1" si="4"/>
-        <v>-3.3357901914897048</v>
-      </c>
-      <c r="C126">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5.9374173514801765</v>
-      </c>
-      <c r="D126">
-        <f t="shared" ca="1" si="4"/>
-        <v>-6.3604483969575698</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127">
-        <v>1475</v>
-      </c>
-      <c r="B127">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.5941172850844882</v>
-      </c>
-      <c r="C127">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.4578763225532168</v>
-      </c>
-      <c r="D127">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.4215516219505471</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128">
-        <v>1490</v>
-      </c>
-      <c r="B128">
-        <f t="shared" ca="1" si="4"/>
-        <v>-3.1223591528766947</v>
-      </c>
-      <c r="C128">
-        <f t="shared" ca="1" si="4"/>
-        <v>-8.2699960194421056</v>
-      </c>
-      <c r="D128">
-        <f t="shared" ca="1" si="4"/>
-        <v>-9.3924321417914847</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129">
-        <v>1505</v>
-      </c>
-      <c r="B129">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.17684123913781491</v>
-      </c>
-      <c r="C129">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.420057828779171</v>
-      </c>
-      <c r="D129">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.785236017644853</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130">
-        <v>1520</v>
-      </c>
-      <c r="B130">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.4866170936873169</v>
-      </c>
-      <c r="C130">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.3727605273293273</v>
-      </c>
-      <c r="D130">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.6160834056364157</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131">
-        <v>1535</v>
-      </c>
-      <c r="B131">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5.3015006137264864</v>
-      </c>
-      <c r="C131">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.2027177978253842</v>
-      </c>
-      <c r="D131">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.6128189840913993</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132">
-        <v>1550</v>
-      </c>
-      <c r="B132">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.717701300741163</v>
-      </c>
-      <c r="C132">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.2962642466013161</v>
-      </c>
-      <c r="D132">
-        <f t="shared" ca="1" si="4"/>
-        <v>-8.1265009013255316</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -4952,7 +2690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -5333,7 +3071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -5714,7 +3452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
